--- a/Reports/heart/heart_distcorrgan_50_02.xlsx
+++ b/Reports/heart/heart_distcorrgan_50_02.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0407</v>
+        <v>-0.0653</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.07149999999999999</v>
+        <v>-0.0653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.1594</v>
+        <v>0.8945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7347</v>
+        <v>0.8312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2</v>
+        <v>-0.1528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.64</v>
+        <v>0.7326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1274</v>
+        <v>-0.0089</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.3285</v>
+        <v>0.9844000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1354</v>
+        <v>-0.07389999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0045</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6</v>
+        <v>0.6576</v>
       </c>
     </row>
     <row r="13">
